--- a/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
@@ -4,19 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="EoNVFEwFC" sheetId="3" r:id="rId3"/>
+    <sheet name="Plug-in Hybrid Elec Fraction" sheetId="6" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="EoNVFEwFC-LDVs" sheetId="3" r:id="rId4"/>
+    <sheet name="EoNVFEwFC-HDVs" sheetId="5" r:id="rId5"/>
+    <sheet name="EoNVFEwFC-aircraft" sheetId="7" r:id="rId6"/>
+    <sheet name="EoNVFEwFC-rail" sheetId="8" r:id="rId7"/>
+    <sheet name="EoNVFEwFC-ships" sheetId="9" r:id="rId8"/>
+    <sheet name="EoNVFEwFC-motorbikes" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="elec_fraction">'Plug-in Hybrid Elec Fraction'!$A$5</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
   <si>
     <t>EoNVFEwFC Elasticity of New Veh Fuel Economy wrt Fuel Cost</t>
   </si>
@@ -79,13 +88,112 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>battery electric vehicle</t>
+  </si>
+  <si>
+    <t>natural gas vehicle</t>
+  </si>
+  <si>
+    <t>gasoline vehicle</t>
+  </si>
+  <si>
+    <t>diesel vehicle</t>
+  </si>
+  <si>
+    <t>plugin hybrid vehicle</t>
+  </si>
+  <si>
+    <t>nonroad vehicle</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>petroleum gasoline</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
+  <si>
+    <t>biofuel gasoline</t>
+  </si>
+  <si>
+    <t>biofuel diesel</t>
+  </si>
+  <si>
+    <t>jet fuel</t>
+  </si>
+  <si>
+    <t>We use elastiticies of zero for any fuel type that is not used by a given vehicle technology,</t>
+  </si>
+  <si>
+    <t>or that is not used very much by a given vehicle technology (such as the two biofuels), since</t>
+  </si>
+  <si>
+    <t>new vehicle fuel economy will be influenced only by the most common sort of fuel or fuels</t>
+  </si>
+  <si>
+    <t>burned by that vehicle and that technology type.</t>
+  </si>
+  <si>
+    <t>fraction of electricity used by plug-in hybrids</t>
+  </si>
+  <si>
+    <t>DoE Alternative Fuels Data Center</t>
+  </si>
+  <si>
+    <t>year unspecified</t>
+  </si>
+  <si>
+    <t>Hybrid and Plug-In Electric Vehicle Emissions Data Sources and Assumptions</t>
+  </si>
+  <si>
+    <t>https://www.afdc.energy.gov/vehicles/electric_emissions_sources.html</t>
+  </si>
+  <si>
+    <t>Second-to-last parameter in the table</t>
+  </si>
+  <si>
+    <t>Plug-in hybrids can accept either electricity or combustible fuels.</t>
+  </si>
+  <si>
+    <t>This sheet specifies the percentage of driving for which electricity is used.</t>
+  </si>
+  <si>
+    <t>Electricity fraction</t>
+  </si>
+  <si>
+    <t>Our data source (DoE Alternative Fuels Data Center, as specified on the</t>
+  </si>
+  <si>
+    <t>"About" tab) includes the following source information, indicating</t>
+  </si>
+  <si>
+    <t>where they obtained their number:</t>
+  </si>
+  <si>
+    <t>Estimate based on the current industry standard, SAE J2841 (available in http://avt.inel.gov/pdf/EVProj/EVProjectUtilityFactorVolt.pdf), assuming the PHEV all-electric range is 33 miles.</t>
+  </si>
+  <si>
+    <t>For plug-in hybrids, we divide the elasticity between electricity and the main combustible</t>
+  </si>
+  <si>
+    <t>fuel according to the fraction of electricity used by plug-in hybrids.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +217,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -124,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -132,12 +268,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0096D7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0096D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -148,10 +337,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="9">
+    <cellStyle name="Body: normal cell" xfId="2"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="4"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Parent row" xfId="7"/>
+    <cellStyle name="Table title" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,9 +653,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -526,6 +729,71 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -539,6 +807,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -631,84 +952,1271 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <f>Data!$B$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Data!$B2*elec_fraction</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Data!$B$2*(1-elec_fraction)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Data!$B$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <f>Data!B2</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <f>Data!$B$3</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Data!$B$3*elec_fraction</f>
+        <v>2.4750000000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <f>Data!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$3</f>
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <f>Data!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$3</f>
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <f>Data!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Data!$B$3</f>
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>Data!$B$3*(1-elec_fraction)</f>
+        <v>2.0249999999999997E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <f>Data!B6</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <f>Data!B7</f>
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>Data!$B$4</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Data!$B$5</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Data!$B$6</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <f>Data!$B$7</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Data!$B7*elec_fraction</f>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Data!$B$7</f>
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Data!$B$7</f>
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Data!$B$7*(1-elec_fraction)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Data!$B$7</f>
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>